--- a/ScenarioTestDocs-Juan-Api.xlsx
+++ b/ScenarioTestDocs-Juan-Api.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
   <si>
     <t>Created By</t>
   </si>
@@ -249,9 +249,6 @@
     <t>booking created with status code 200</t>
   </si>
   <si>
-    <t>Testing API restful booker</t>
-  </si>
-  <si>
     <t>Verify GET ping</t>
   </si>
   <si>
@@ -268,6 +265,24 @@
   </si>
   <si>
     <t>BU_009</t>
+  </si>
+  <si>
+    <t>Verify GET booking by checkout and checkin date</t>
+  </si>
+  <si>
+    <t>2. Send Request to https://restful-booker.herokuapp.com/booking?checkin=2014-03-13&amp;checkout=2014-05-21 with GET</t>
+  </si>
+  <si>
+    <t>booking detail of given checkin and checkout should appear with status code 200</t>
+  </si>
+  <si>
+    <t>booking detail of given checkin and checkout appear with status code 200</t>
+  </si>
+  <si>
+    <t>BU_0010</t>
+  </si>
+  <si>
+    <t>Testing Final Project API - restful booker</t>
   </si>
 </sst>
 </file>
@@ -340,7 +355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -463,11 +478,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -520,36 +598,43 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -557,18 +642,35 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -788,7 +890,7 @@
   <dimension ref="A1:AB954"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:C28"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -809,22 +911,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="2"/>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="34" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="35"/>
+      <c r="H1" s="28"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -877,22 +979,22 @@
       <c r="AB2" s="3"/>
     </row>
     <row r="3" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="37">
+      <c r="F3" s="26"/>
+      <c r="G3" s="31">
         <v>44755</v>
       </c>
-      <c r="H3" s="35"/>
+      <c r="H3" s="28"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -945,15 +1047,15 @@
       <c r="AB4" s="3"/>
     </row>
     <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="33" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -991,12 +1093,12 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="31"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G6" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="11">
         <v>0</v>
@@ -1062,7 +1164,7 @@
       <c r="C8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="35" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="23"/>
@@ -1099,19 +1201,19 @@
       <c r="AB8" s="3"/>
     </row>
     <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="21"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="14" t="s">
         <v>27</v>
       </c>
@@ -1140,12 +1242,12 @@
     </row>
     <row r="10" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23"/>
-      <c r="B10" s="26"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="23"/>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="21"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="13" t="s">
         <v>30</v>
       </c>
@@ -1174,12 +1276,12 @@
     </row>
     <row r="11" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23"/>
-      <c r="B11" s="26"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="23"/>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="20"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14" t="s">
         <v>32</v>
@@ -1211,19 +1313,19 @@
       <c r="AB11" s="3"/>
     </row>
     <row r="12" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="21"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="14" t="s">
         <v>38</v>
       </c>
@@ -1252,12 +1354,12 @@
     </row>
     <row r="13" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23"/>
-      <c r="B13" s="25"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="23"/>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="20"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14" t="s">
         <v>40</v>
@@ -1289,17 +1391,17 @@
       <c r="AB13" s="3"/>
     </row>
     <row r="14" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="19" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="21"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="14" t="s">
         <v>38</v>
       </c>
@@ -1328,12 +1430,12 @@
     </row>
     <row r="15" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23"/>
-      <c r="B15" s="25"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="23"/>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="20"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14" t="s">
         <v>44</v>
@@ -1365,23 +1467,23 @@
       <c r="AB15" s="3"/>
     </row>
     <row r="16" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="44"/>
+      <c r="C16" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="14" t="s">
+      <c r="E16" s="40"/>
+      <c r="F16" s="18" t="s">
         <v>38</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="14"/>
+      <c r="I16" s="18"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -1403,21 +1505,21 @@
       <c r="AB16" s="3"/>
     </row>
     <row r="17" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="20" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14" t="s">
+      <c r="E17" s="40"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="18" t="s">
         <v>6</v>
       </c>
       <c r="J17" s="3"/>
@@ -1441,19 +1543,19 @@
       <c r="AB17" s="3"/>
     </row>
     <row r="18" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="20" t="s">
+      <c r="B18" s="44"/>
+      <c r="C18" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="21"/>
+      <c r="E18" s="20"/>
       <c r="F18" s="14" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -1479,19 +1581,23 @@
       <c r="AB18" s="3"/>
     </row>
     <row r="19" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="23"/>
-      <c r="D19" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
+      <c r="D19" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>6</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -1513,23 +1619,23 @@
       <c r="AB19" s="3"/>
     </row>
     <row r="20" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="22"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="20" t="s">
-        <v>66</v>
+      <c r="A20" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="E20" s="20"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>6</v>
-      </c>
+      <c r="F20" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="14"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -1551,22 +1657,18 @@
       <c r="AB20" s="3"/>
     </row>
     <row r="21" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1589,19 +1691,23 @@
       <c r="AB21" s="3"/>
     </row>
     <row r="22" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="25"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="23"/>
-      <c r="D22" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
+      <c r="D22" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>6</v>
+      </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -1623,23 +1729,23 @@
       <c r="AB22" s="3"/>
     </row>
     <row r="23" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="20" t="s">
-        <v>55</v>
+      <c r="A23" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="44"/>
+      <c r="C23" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="E23" s="20"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>6</v>
-      </c>
+      <c r="F23" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="14"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -1661,22 +1767,18 @@
       <c r="AB23" s="3"/>
     </row>
     <row r="24" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -1699,19 +1801,23 @@
       <c r="AB24" s="3"/>
     </row>
     <row r="25" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="25"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="23"/>
-      <c r="D25" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
+      <c r="D25" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>6</v>
+      </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -1733,23 +1839,23 @@
       <c r="AB25" s="3"/>
     </row>
     <row r="26" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="20" t="s">
-        <v>58</v>
+      <c r="A26" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="44"/>
+      <c r="C26" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="E26" s="20"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>6</v>
-      </c>
+      <c r="F26" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="14"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -1771,22 +1877,18 @@
       <c r="AB26" s="3"/>
     </row>
     <row r="27" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -1809,19 +1911,19 @@
       <c r="AB27" s="3"/>
     </row>
     <row r="28" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="25"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="23"/>
-      <c r="D28" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="20"/>
+      <c r="D28" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="19"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I28" s="14" t="s">
         <v>6</v>
@@ -1847,21 +1949,19 @@
       <c r="AB28" s="3"/>
     </row>
     <row r="29" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="18" t="s">
+      <c r="A29" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="20" t="s">
+      <c r="B29" s="44"/>
+      <c r="C29" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="13" t="s">
-        <v>38</v>
+      <c r="E29" s="20"/>
+      <c r="F29" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
@@ -1887,19 +1987,19 @@
       <c r="AB29" s="3"/>
     </row>
     <row r="30" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="23"/>
-      <c r="D30" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" s="20"/>
+      <c r="D30" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="19"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I30" s="14" t="s">
         <v>6</v>
@@ -1925,15 +2025,25 @@
       <c r="AB30" s="3"/>
     </row>
     <row r="31" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="A31" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="14"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -1955,15 +2065,23 @@
       <c r="AB31" s="3"/>
     </row>
     <row r="32" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>6</v>
+      </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -6005,7 +6123,7 @@
       <c r="AB166" s="3"/>
     </row>
     <row r="167" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="2"/>
+      <c r="A167" s="3"/>
       <c r="B167" s="2"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -6035,7 +6153,7 @@
       <c r="AB167" s="2"/>
     </row>
     <row r="168" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="2"/>
+      <c r="A168" s="3"/>
       <c r="B168" s="2"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -6097,13 +6215,13 @@
     <row r="170" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
+      <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
-      <c r="F170" s="2"/>
-      <c r="G170" s="2"/>
-      <c r="H170" s="2"/>
-      <c r="I170" s="2"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3"/>
+      <c r="I170" s="3"/>
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
       <c r="L170" s="2"/>
@@ -6127,13 +6245,13 @@
     <row r="171" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
-      <c r="F171" s="2"/>
-      <c r="G171" s="2"/>
-      <c r="H171" s="2"/>
-      <c r="I171" s="2"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
+      <c r="I171" s="3"/>
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
       <c r="L171" s="2"/>
@@ -6158,8 +6276,8 @@
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
-      <c r="E172" s="2"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
@@ -6245,6 +6363,7 @@
       <c r="AB174" s="2"/>
     </row>
     <row r="175" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -6254,6 +6373,7 @@
       <c r="I175" s="2"/>
     </row>
     <row r="176" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -6272,11 +6392,27 @@
       <c r="I177" s="2"/>
     </row>
     <row r="178" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
-    </row>
-    <row r="179" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="2"/>
+      <c r="I178" s="2"/>
+    </row>
+    <row r="179" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+      <c r="H179" s="2"/>
+      <c r="I179" s="2"/>
+    </row>
+    <row r="180" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+    </row>
     <row r="181" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="182" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="183" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7052,16 +7188,38 @@
     <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B12:B28"/>
+  <mergeCells count="56">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B12:B30"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="C20:C22"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -7076,35 +7234,17 @@
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="C31:C32"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A18:A20"/>
     <mergeCell ref="D28:E28"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D30:E30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
